--- a/doc/task-04/Notizen/scrum_group_white_2019_0.1.xlsx
+++ b/doc/task-04/Notizen/scrum_group_white_2019_0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Notizen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA0B86-C5D4-3A42-8F19-EF3E9A335F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606094E1-0D1E-4DA0-B8DD-48BE63C108F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -87,27 +87,9 @@
     <t>Martin</t>
   </si>
   <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>UI, Controller</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
     <t>Patient Model</t>
   </si>
   <si>
@@ -216,15 +198,6 @@
     <t>Admin-Funktion</t>
   </si>
   <si>
-    <t>Gui bauen, navigation</t>
-  </si>
-  <si>
-    <t>klassen erstellen, bsp Daten definieren</t>
-  </si>
-  <si>
-    <t>datenbank erstellen, modelierung, integrität</t>
-  </si>
-  <si>
     <t>Projekt nach Vaadin erstellen. Alle notwendigen Views und Klassen erstellen.</t>
   </si>
   <si>
@@ -244,13 +217,91 @@
   </si>
   <si>
     <t xml:space="preserve">Um die Patientendaten persistent zu machen, wird eine relationale Datenbank verwendet. </t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>GUI loginView</t>
+  </si>
+  <si>
+    <t>GUI mainView</t>
+  </si>
+  <si>
+    <t>GUI patientView</t>
+  </si>
+  <si>
+    <t>GUI medicationView</t>
+  </si>
+  <si>
+    <t>GUI reportView</t>
+  </si>
+  <si>
+    <t>GUI appointmentView</t>
+  </si>
+  <si>
+    <t>Dummydaten</t>
+  </si>
+  <si>
+    <t>patientView</t>
+  </si>
+  <si>
+    <t>Navigationskonzept erarbeiten + Im Vaadin Elemente für das GUI überprüfen</t>
+  </si>
+  <si>
+    <t>GUI für loginView erstellen und Navigation implementieren</t>
+  </si>
+  <si>
+    <t>GUI für mainView erstellen und Navigation implementieren</t>
+  </si>
+  <si>
+    <t>GUI für patientView erstellen und Navigation implementieren</t>
+  </si>
+  <si>
+    <t>GUI für medicationView erstellen und Navigation implementieren</t>
+  </si>
+  <si>
+    <t>GUI für reportView erstellen und Navigation implementieren</t>
+  </si>
+  <si>
+    <t>GUI für appointmentView erstellen und Navigation implementieren</t>
+  </si>
+  <si>
+    <t>Alle Klassen gemäss Klassendiagramm erstellen (nur Grundgerüst)</t>
+  </si>
+  <si>
+    <t>Grundgerüst</t>
+  </si>
+  <si>
+    <t>patientView Logik nach MVP implementieren inkl. trivialer Getter-Methoden für Patientenauflistung</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Gaupa1</t>
+  </si>
+  <si>
+    <t>selvs1</t>
+  </si>
+  <si>
+    <t>Dummydaten für Medikamente, Patienten, und Doktor erstellen in Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +333,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -362,11 +420,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -392,24 +475,6 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -424,17 +489,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated"/>
     <tableColumn id="7" xr3:uid="{A15D7204-E3F9-8C4A-94DF-9639FA0210A0}" name="Effort Actual"/>
-    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,116 +832,116 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>52</v>
       </c>
       <c r="B9" s="10" t="str">
         <f>HYPERLINK("https://github.com/vgj1","vgj1")</f>
         <v>vgj1</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="10" t="str">
         <f>HYPERLINK("https://github.com/prm2","prm2")</f>
         <v>prm2</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="F18" s="6"/>
     </row>
   </sheetData>
@@ -888,24 +953,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="137" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -919,10 +984,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>16</v>
@@ -931,15 +996,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
@@ -953,15 +1018,15 @@
       <c r="J2" s="11"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
@@ -977,15 +1042,15 @@
       <c r="J3" s="11"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>6</v>
@@ -1001,15 +1066,15 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>6</v>
@@ -1023,15 +1088,15 @@
       <c r="J5" s="11"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>5</v>
@@ -1043,15 +1108,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>5</v>
@@ -1063,15 +1128,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
@@ -1083,9 +1148,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1099,29 +1164,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1141,16 +1206,16 @@
         <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -1159,45 +1224,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="15">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
+      <c r="K2" s="15">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1205,22 +1267,23 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <f>6*2</f>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -1232,111 +1295,213 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4">
+        <f>6*1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1.3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f>SUM(J4:J4)</f>
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2.1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <f>SUM(J5:J5)</f>
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <f>6*2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f>SUM(I2:I12)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1348,28 +1513,28 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,7 +1548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task-04/Notizen/scrum_group_white_2019_0.1.xlsx
+++ b/doc/task-04/Notizen/scrum_group_white_2019_0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sugeelan\Documents\GitHub\ch.bfh.btx8081.w2019.white\doc\task-04\Notizen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janahansellathurai/Documents/GitHub/ch.bfh.btx8081.w2019.white/doc/task-04/Notizen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606094E1-0D1E-4DA0-B8DD-48BE63C108F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD09AE62-6700-294F-85EF-684406810EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -60,15 +60,6 @@
     <t>waiting</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -84,18 +75,6 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -240,9 +219,6 @@
     <t>GUI appointmentView</t>
   </si>
   <si>
-    <t>Dummydaten</t>
-  </si>
-  <si>
     <t>patientView</t>
   </si>
   <si>
@@ -273,18 +249,6 @@
     <t>Grundgerüst</t>
   </si>
   <si>
-    <t>patientView Logik nach MVP implementieren inkl. trivialer Getter-Methoden für Patientenauflistung</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Alle</t>
   </si>
   <si>
@@ -294,14 +258,23 @@
     <t>selvs1</t>
   </si>
   <si>
-    <t>Dummydaten für Medikamente, Patienten, und Doktor erstellen in Array</t>
+    <t xml:space="preserve">patientView Logik nach MVP implementieren inkl. trivialer Getter-Methoden für Patientenauflistung. </t>
+  </si>
+  <si>
+    <t>vaadin</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>vaadin, eclipse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,32 +310,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -383,19 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -407,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,15 +371,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -489,17 +495,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EA42E905-5D22-FA4D-A126-3B479F9308D0}" name="Tabelle3" displayName="Tabelle3" ref="A1:H8" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:H8" xr:uid="{4B22D1C9-7FB4-E748-99A7-20CB49DC10D0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A35BD1F4-6779-5444-A51A-6E20F68BFCEB}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D8DCE3F4-58F3-4948-8739-448E3827F14A}" name="Story Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C7617006-D053-2948-A533-11EECDC4DAF0}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C84EA2CD-EF21-C340-B4AC-3BABE27FB734}" name="Priority " dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B98A9E71-79F3-DC4A-811F-973D93C52565}" name="Effort Plan Original" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{9E6A68DF-FA33-7D40-A3F0-B2C3987D4787}" name="Effort Plan Updated"/>
     <tableColumn id="7" xr3:uid="{A15D7204-E3F9-8C4A-94DF-9639FA0210A0}" name="Effort Actual"/>
-    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5C276269-49FE-3849-B4C8-236B70E6E7CB}" name="Status" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3ED146B-4112-104B-B86C-671C49528323}" name="Tabelle1" displayName="Tabelle1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L11" xr:uid="{CD61C43E-D25A-5443-81A6-B90EBB9FCC84}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{68FC7359-A3EC-0A46-81A4-AF65DCEF8136}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{AFD358FE-B293-1B45-8566-B789BDCDA3C1}" name="Sprint"/>
+    <tableColumn id="3" xr3:uid="{EAD33B73-90D5-CD44-AC46-0DB4B4C461AC}" name="Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D7091834-736D-324A-8E05-E56CF91E4DB0}" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FABE7295-8545-8A4F-864A-AE341C471F2B}" name="Components"/>
+    <tableColumn id="6" xr3:uid="{E935D23C-981E-9646-8C64-6FF75273C0D8}" name="Owner"/>
+    <tableColumn id="7" xr3:uid="{5BB55267-665B-5845-A754-3FAD7D8494D2}" name="Reviewer"/>
+    <tableColumn id="8" xr3:uid="{A0577916-38F8-354A-AAAE-44ABAACE6486}" name="Priority "/>
+    <tableColumn id="9" xr3:uid="{80641311-7238-A342-A422-546053205B8E}" name="Effort Plan Original"/>
+    <tableColumn id="10" xr3:uid="{E2C1C55E-8BD9-254F-B387-19943B09D3D7}" name="Effort Plan Updated"/>
+    <tableColumn id="11" xr3:uid="{6FF5AA7E-E8EA-6644-84FF-E832CF93BE4C}" name="Effort Actual"/>
+    <tableColumn id="12" xr3:uid="{2510C7CA-B713-FE4C-9D58-7E94954CD50B}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3EBABFB-B420-144F-8682-E8F5915F60C1}" name="Tabelle2" displayName="Tabelle2" ref="A1:D3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D3" xr:uid="{789FD85D-7B9A-9D44-B030-1998E82683A4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{84ED6281-1169-1F43-96C2-B0CBDF80F883}" name="Sprint "/>
+    <tableColumn id="2" xr3:uid="{2C9B2C63-1CB5-2741-869E-6391B76F0E04}" name="Time of Record" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF9241F2-EED2-A644-82AD-1C2CA52106BE}" name="Remaining Effort"/>
+    <tableColumn id="4" xr3:uid="{7D7B4E84-DE3A-4E44-858C-3553450F3C40}" name="Remaining Ressources"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -832,117 +872,117 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="10" t="str">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="str">
         <f>HYPERLINK("https://github.com/vgj1","vgj1")</f>
         <v>vgj1</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="10" t="str">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="str">
         <f>HYPERLINK("https://github.com/prm2","prm2")</f>
         <v>prm2</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="25" x14ac:dyDescent="0.2">
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,203 +994,203 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>20</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>20</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="102.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>52</v>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>25</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>10</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>25</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>54</v>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>15</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1164,344 +1204,363 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="15">
-        <v>2</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="I2" s="6">
         <f>6*2</f>
         <v>12</v>
       </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4">
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
         <f>6*1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <f>SUM(J5:J5)</f>
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2.1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12">
+      <c r="I10" s="6">
         <f>6*2</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I13">
-        <f>SUM(I2:I12)</f>
-        <v>55</v>
+      <c r="L10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1509,36 +1568,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>42262</v>
       </c>
       <c r="C2">
@@ -1548,11 +1607,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>42263</v>
       </c>
       <c r="C3">
@@ -1565,5 +1624,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>